--- a/data/trans_bre/P1802_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1802_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>4.659768422589153</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.007934427059145</v>
+        <v>3.00793442705915</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.3687270099964236</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.2187382041599941</v>
+        <v>0.2187382041599946</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7234604996099357</v>
+        <v>0.802078872935142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4532633587651637</v>
+        <v>-0.4569110251670531</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0480094023685871</v>
+        <v>0.0504062402504428</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.03915173751512189</v>
+        <v>-0.04024771843167495</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.370535063090703</v>
+        <v>8.682297676138129</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.752687599841084</v>
+        <v>6.280448577392826</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.7768052503639136</v>
+        <v>0.7813473234241878</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.5512864676653585</v>
+        <v>0.5238530579615438</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>4.425024785706736</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.027292124295283</v>
+        <v>2.027292124295279</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2737276541133802</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1587903954376294</v>
+        <v>0.1587903954376291</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9833396082295406</v>
+        <v>1.116237351441236</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.110026629219761</v>
+        <v>-1.068702902484004</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05127678142472034</v>
+        <v>0.05935739320624794</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07568759599401283</v>
+        <v>-0.07846305019742313</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.961332200360645</v>
+        <v>8.012988049819391</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.968172103284815</v>
+        <v>4.722662191350025</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5318843347273212</v>
+        <v>0.5628089770157599</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4574202012822232</v>
+        <v>0.4294890388565189</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.561768153891795</v>
+        <v>1.138821340344497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.051839016592337</v>
+        <v>2.774471580992742</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.09317369585765842</v>
+        <v>0.06957289138916535</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1833825586204849</v>
+        <v>0.1751093823019152</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.542886674027089</v>
+        <v>8.826372384571</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.986378160418804</v>
+        <v>9.860804076159118</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.7838375856852904</v>
+        <v>0.7492230726641195</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.8488463779756532</v>
+        <v>0.8341778683381207</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3120594051071415</v>
+        <v>0.4754557972689089</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5652035245086249</v>
+        <v>-0.2877939654394754</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02070119454494406</v>
+        <v>0.03438171055682958</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02613547480331682</v>
+        <v>-0.01402394270556294</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.183229973493662</v>
+        <v>7.401094296816854</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.391960652459079</v>
+        <v>6.245865769837016</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.584947070694424</v>
+        <v>0.6242779821156201</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3636284986305516</v>
+        <v>0.3586162815386136</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.516226054382316</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.626124397624131</v>
+        <v>3.626124397624134</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.3143858877609284</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.239763453345172</v>
+        <v>0.2397634533451722</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.664786226943249</v>
+        <v>2.671608683262733</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.080760508194669</v>
+        <v>1.911919311142511</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1707465894541474</v>
+        <v>0.1724525277123475</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1267188506876166</v>
+        <v>0.1156803848074541</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.295307463130184</v>
+        <v>6.268098569738142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.326425410326905</v>
+        <v>5.181978373419635</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.4607974879636407</v>
+        <v>0.4702182026221208</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.3740053932370973</v>
+        <v>0.3607613928537574</v>
       </c>
     </row>
     <row r="19">
